--- a/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/产成品.xlsx
+++ b/data_year/zb/工业/按行业分国有控股工业企业主要经济指标(2000-2002)/产成品.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>182.71294</v>
-      </c>
-      <c r="C2" t="n">
-        <v>306.63046</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.16656</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.08307</v>
-      </c>
-      <c r="F2" t="n">
-        <v>11.38841</v>
-      </c>
-      <c r="G2" t="n">
-        <v>244.57597</v>
-      </c>
-      <c r="H2" t="n">
-        <v>42.59754</v>
-      </c>
-      <c r="I2" t="n">
-        <v>112.22809</v>
-      </c>
-      <c r="J2" t="n">
-        <v>20.94753</v>
-      </c>
-      <c r="K2" t="n">
-        <v>3242.00895</v>
-      </c>
-      <c r="L2" t="n">
-        <v>27.02897</v>
-      </c>
-      <c r="M2" t="n">
-        <v>3.76218</v>
-      </c>
-      <c r="N2" t="n">
-        <v>5.15123</v>
-      </c>
-      <c r="O2" t="n">
-        <v>222.68661</v>
-      </c>
-      <c r="P2" t="n">
-        <v>79.88204</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>17.00764</v>
-      </c>
-      <c r="R2" t="n">
-        <v>21.64101</v>
-      </c>
-      <c r="S2" t="n">
-        <v>15.87079</v>
-      </c>
-      <c r="T2" t="n">
-        <v>14.52197</v>
-      </c>
-      <c r="U2" t="n">
-        <v>56.02803</v>
-      </c>
-      <c r="V2" t="n">
-        <v>49.78026</v>
-      </c>
-      <c r="W2" t="n">
-        <v>7.89658</v>
-      </c>
-      <c r="X2" t="n">
-        <v>89.46874</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>21.23908</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>281.4001</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>154.54689</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>18.57975</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>139.36202</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>33.39585</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>255.34749</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>1.17845</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>64.39015999999999</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>51.73544</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>159.15404</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>20.62657</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>38.3644</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>98.08864</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>94.08029000000001</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>204.39494</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>7.77301</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>170.47944</v>
-      </c>
-      <c r="C3" t="n">
-        <v>330.68599</v>
-      </c>
-      <c r="D3" t="n">
-        <v>37.94377</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.05231</v>
-      </c>
-      <c r="F3" t="n">
-        <v>9.63495</v>
-      </c>
-      <c r="G3" t="n">
-        <v>219.41082</v>
-      </c>
-      <c r="H3" t="n">
-        <v>32.63286</v>
-      </c>
-      <c r="I3" t="n">
-        <v>112.38882</v>
-      </c>
-      <c r="J3" t="n">
-        <v>20.93186</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3132.85527</v>
-      </c>
-      <c r="L3" t="n">
-        <v>28.96293</v>
-      </c>
-      <c r="M3" t="n">
-        <v>4.08789</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.86685</v>
-      </c>
-      <c r="O3" t="n">
-        <v>224.7799</v>
-      </c>
-      <c r="P3" t="n">
-        <v>83.99344000000001</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>16.54393</v>
-      </c>
-      <c r="R3" t="n">
-        <v>19.17678</v>
-      </c>
-      <c r="S3" t="n">
-        <v>16.38695</v>
-      </c>
-      <c r="T3" t="n">
-        <v>12.36523</v>
-      </c>
-      <c r="U3" t="n">
-        <v>51.74886</v>
-      </c>
-      <c r="V3" t="n">
-        <v>57.79789</v>
-      </c>
-      <c r="W3" t="n">
-        <v>4.7551</v>
-      </c>
-      <c r="X3" t="n">
-        <v>77.89548000000001</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>10.55794</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>248.59469</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>157.15897</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>20.12406</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>123.80031</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>42.02805</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>255.7161</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>1.82986</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>60.5862</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>53.36147</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>153.68239</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>21.97527</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>35.71015</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>86.93501999999999</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>89.39433</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>198.44076</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>7.08759</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>171.98238</v>
-      </c>
-      <c r="C4" t="n">
-        <v>379.67247</v>
-      </c>
-      <c r="D4" t="n">
-        <v>39.6078</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.04915</v>
-      </c>
-      <c r="F4" t="n">
-        <v>8.25235</v>
-      </c>
-      <c r="G4" t="n">
-        <v>214.81829</v>
-      </c>
-      <c r="H4" t="n">
-        <v>23.04385</v>
-      </c>
-      <c r="I4" t="n">
-        <v>110.76983</v>
-      </c>
-      <c r="J4" t="n">
-        <v>21.74622</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3016.0457</v>
-      </c>
-      <c r="L4" t="n">
-        <v>26.37555</v>
-      </c>
-      <c r="M4" t="n">
-        <v>3.0566</v>
-      </c>
-      <c r="N4" t="n">
-        <v>4.65193</v>
-      </c>
-      <c r="O4" t="n">
-        <v>252.20086</v>
-      </c>
-      <c r="P4" t="n">
-        <v>72.6335</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>13.57174</v>
-      </c>
-      <c r="R4" t="n">
-        <v>18.29138</v>
-      </c>
-      <c r="S4" t="n">
-        <v>12.0909</v>
-      </c>
-      <c r="T4" t="n">
-        <v>12.11541</v>
-      </c>
-      <c r="U4" t="n">
-        <v>46.33378</v>
-      </c>
-      <c r="V4" t="n">
-        <v>59.96019</v>
-      </c>
-      <c r="W4" t="n">
-        <v>4.8994</v>
-      </c>
-      <c r="X4" t="n">
-        <v>75.72736</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>13.17777</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>230.4172</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>148.17676</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>10.69641</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>114.51627</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>35.2943</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>205.86206</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>2.31898</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>59.2504</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>51.99798</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>141.04095</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>21.21568</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>31.34438</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>74.51958999999999</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>88.04318000000001</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>184.91763</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>7.39542</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
